--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{778CAD50-114C-49BC-9A66-ED8158F02B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15752819-16BA-4F20-962D-E11793C001AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Phase 1 Title</t>
   </si>
@@ -223,9 +223,6 @@
     <t xml:space="preserve">Begge </t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Rønnow og Nielsens Entreprenørfirma</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Eksamensprojekt</t>
   </si>
   <si>
-    <t>Forstå XML-filer</t>
-  </si>
-  <si>
     <t>Cryptering af kode</t>
   </si>
   <si>
@@ -262,7 +256,10 @@
     <t>Start Synopsis</t>
   </si>
   <si>
-    <t>Forskel på XML og txt</t>
+    <t>Forstå JSON-filer</t>
+  </si>
+  <si>
+    <t>Forskel på JSON og txt</t>
   </si>
 </sst>
 </file>
@@ -932,6 +929,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -942,15 +948,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,18 +968,6 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -999,6 +984,18 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1522,30 +1519,30 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA20" sqref="AA20"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.6328125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="2.6328125" customWidth="1"/>
+    <col min="8" max="8" width="6.08984375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.54296875" customWidth="1"/>
+    <col min="69" max="70" width="10.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="59" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1556,127 +1553,127 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="86" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <f ca="1">TODAY()</f>
-        <v>44621</v>
-      </c>
-      <c r="F3" s="91"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44643</v>
+      </c>
+      <c r="F3" s="94"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="91">
         <f ca="1">I5</f>
-        <v>44620</v>
-      </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+        <v>44641</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f ca="1">P5</f>
-        <v>44627</v>
-      </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+        <v>44648</v>
+      </c>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f ca="1">W5</f>
-        <v>44634</v>
-      </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+        <v>44655</v>
+      </c>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f ca="1">AD5</f>
-        <v>44641</v>
-      </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+        <v>44662</v>
+      </c>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f ca="1">AK5</f>
-        <v>44648</v>
-      </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+        <v>44669</v>
+      </c>
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f ca="1">AR5</f>
-        <v>44655</v>
-      </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+        <v>44676</v>
+      </c>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f ca="1">AY5</f>
-        <v>44662</v>
-      </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+        <v>44683</v>
+      </c>
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f ca="1">BF5</f>
-        <v>44669</v>
-      </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44690</v>
+      </c>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>39</v>
       </c>
@@ -1688,230 +1685,230 @@
       <c r="G5" s="84"/>
       <c r="I5" s="11">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44620</v>
+        <v>44641</v>
       </c>
       <c r="J5" s="10">
         <f ca="1">I5+1</f>
-        <v>44621</v>
+        <v>44642</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44622</v>
+        <v>44643</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44623</v>
+        <v>44644</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44624</v>
+        <v>44645</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44625</v>
+        <v>44646</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44626</v>
+        <v>44647</v>
       </c>
       <c r="P5" s="11">
         <f ca="1">O5+1</f>
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="Q5" s="10">
         <f ca="1">P5+1</f>
-        <v>44628</v>
+        <v>44649</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44629</v>
+        <v>44650</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44630</v>
+        <v>44651</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44653</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44654</v>
       </c>
       <c r="W5" s="11">
         <f ca="1">V5+1</f>
-        <v>44634</v>
+        <v>44655</v>
       </c>
       <c r="X5" s="10">
         <f ca="1">W5+1</f>
-        <v>44635</v>
+        <v>44656</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44657</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44659</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44660</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44661</v>
       </c>
       <c r="AD5" s="11">
         <f ca="1">AC5+1</f>
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="AE5" s="10">
         <f ca="1">AD5+1</f>
-        <v>44642</v>
+        <v>44663</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44665</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44666</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44667</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44668</v>
       </c>
       <c r="AK5" s="11">
         <f ca="1">AJ5+1</f>
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="AL5" s="10">
         <f ca="1">AK5+1</f>
-        <v>44649</v>
+        <v>44670</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44672</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44673</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44674</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44675</v>
       </c>
       <c r="AR5" s="11">
         <f ca="1">AQ5+1</f>
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="AS5" s="10">
         <f ca="1">AR5+1</f>
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44678</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44659</v>
+        <v>44680</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>44660</v>
+        <v>44681</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44661</v>
+        <v>44682</v>
       </c>
       <c r="AY5" s="11">
         <f ca="1">AX5+1</f>
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="AZ5" s="10">
         <f ca="1">AY5+1</f>
-        <v>44663</v>
+        <v>44684</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44665</v>
+        <v>44686</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44666</v>
+        <v>44687</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>44667</v>
+        <v>44688</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44668</v>
+        <v>44689</v>
       </c>
       <c r="BF5" s="11">
         <f ca="1">BE5+1</f>
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="BG5" s="10">
         <f ca="1">BF5+1</f>
-        <v>44670</v>
+        <v>44691</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44671</v>
+        <v>44692</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44672</v>
+        <v>44693</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>44674</v>
+        <v>44695</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>44675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="59" t="s">
         <v>40</v>
       </c>
@@ -2079,7 +2076,7 @@
         <v>M</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:CV6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="AT6" s="13" t="str">
@@ -2159,7 +2156,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="58" t="s">
         <v>35</v>
       </c>
@@ -2226,7 +2223,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="59" t="s">
         <v>41</v>
       </c>
@@ -2299,7 +2296,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="59" t="s">
         <v>42</v>
       </c>
@@ -2310,15 +2307,15 @@
         <v>46</v>
       </c>
       <c r="D9" s="22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E9" s="65">
         <f ca="1">Project_Start</f>
-        <v>44621</v>
+        <v>44643</v>
       </c>
       <c r="F9" s="65">
         <f ca="1">E9+7</f>
-        <v>44628</v>
+        <v>44650</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
@@ -2382,26 +2379,26 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="59" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="79" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C10" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>47</v>
+      <c r="D10" s="22">
+        <v>1</v>
       </c>
       <c r="E10" s="65">
         <f ca="1">F9</f>
-        <v>44628</v>
+        <v>44650</v>
       </c>
       <c r="F10" s="65">
         <f ca="1">E10+7</f>
-        <v>44635</v>
+        <v>44657</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
@@ -2465,24 +2462,24 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.1</v>
       </c>
       <c r="E11" s="65">
         <f ca="1">F10</f>
-        <v>44635</v>
+        <v>44657</v>
       </c>
       <c r="F11" s="65">
         <f ca="1">E11+7</f>
-        <v>44642</v>
+        <v>44664</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
@@ -2546,24 +2543,24 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="58"/>
       <c r="B12" s="79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.25</v>
       </c>
       <c r="E12" s="65">
         <f ca="1">F10</f>
-        <v>44635</v>
+        <v>44657</v>
       </c>
       <c r="F12" s="65">
         <f ca="1">E12+7</f>
-        <v>44642</v>
+        <v>44664</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
@@ -2627,10 +2624,10 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="58"/>
       <c r="B13" s="79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="71" t="s">
         <v>46</v>
@@ -2638,11 +2635,11 @@
       <c r="D13" s="22"/>
       <c r="E13" s="65">
         <f ca="1">F12</f>
-        <v>44642</v>
+        <v>44664</v>
       </c>
       <c r="F13" s="65">
         <f ca="1">E13+7</f>
-        <v>44649</v>
+        <v>44671</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
@@ -2706,7 +2703,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="59" t="s">
         <v>44</v>
       </c>
@@ -2777,22 +2774,22 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="59"/>
       <c r="B15" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="88" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="66">
         <f ca="1">F13</f>
-        <v>44649</v>
+        <v>44671</v>
       </c>
       <c r="F15" s="66">
         <f ca="1">E15+7</f>
-        <v>44656</v>
+        <v>44678</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
@@ -2856,22 +2853,22 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="88" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="66">
         <f ca="1">F15</f>
-        <v>44656</v>
+        <v>44678</v>
       </c>
       <c r="F16" s="66">
         <f ca="1">E16+7</f>
-        <v>44663</v>
+        <v>44685</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
@@ -2935,22 +2932,22 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="88" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="66">
-        <f t="shared" ref="E17:E19" ca="1" si="7">F16</f>
-        <v>44663</v>
+        <f t="shared" ref="E17:E18" ca="1" si="7">F16</f>
+        <v>44685</v>
       </c>
       <c r="F17" s="66">
-        <f t="shared" ref="F17:F19" ca="1" si="8">E17+7</f>
-        <v>44670</v>
+        <f t="shared" ref="F17:F18" ca="1" si="8">E17+7</f>
+        <v>44692</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
@@ -3014,22 +3011,22 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="58"/>
       <c r="B18" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="66">
         <f t="shared" ca="1" si="7"/>
-        <v>44670</v>
+        <v>44692</v>
       </c>
       <c r="F18" s="66">
         <f t="shared" ca="1" si="8"/>
-        <v>44677</v>
+        <v>44699</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
@@ -3093,7 +3090,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="58"/>
       <c r="B19" s="80"/>
       <c r="C19" s="73"/>
@@ -3162,7 +3159,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="58" t="s">
         <v>32</v>
       </c>
@@ -3233,7 +3230,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
         <v>4</v>
@@ -3304,7 +3301,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
         <v>5</v>
@@ -3375,7 +3372,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
         <v>1</v>
@@ -3446,7 +3443,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
         <v>2</v>
@@ -3517,7 +3514,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="58"/>
       <c r="B25" s="81" t="s">
         <v>3</v>
@@ -3588,7 +3585,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="58" t="s">
         <v>32</v>
       </c>
@@ -3661,7 +3658,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
         <v>4</v>
@@ -3732,7 +3729,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
         <v>5</v>
@@ -3803,7 +3800,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
         <v>1</v>
@@ -3874,7 +3871,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
         <v>2</v>
@@ -3945,7 +3942,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="58"/>
       <c r="B31" s="82" t="s">
         <v>3</v>
@@ -4016,7 +4013,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="58" t="s">
         <v>34</v>
       </c>
@@ -4087,7 +4084,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="59" t="s">
         <v>33</v>
       </c>
@@ -4160,29 +4157,29 @@
       <c r="BK33" s="46"/>
       <c r="BL33" s="46"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="14"/>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4199,15 +4196,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="0" priority="33">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL33">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4256,31 +4253,31 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.08984375" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="87" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A4" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>26</v>
       </c>
@@ -4290,42 +4287,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A8" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
       <c r="A14" s="52" t="s">
         <v>20</v>
       </c>
@@ -4335,7 +4332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>22</v>
       </c>
@@ -4354,6 +4351,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4641,36 +4667,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4689,24 +4706,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tidsplan.xlsx
+++ b/tidsplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15752819-16BA-4F20-962D-E11793C001AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D945E-6A6B-46F9-BCAF-B54678360E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -932,23 +932,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1520,24 +1520,24 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="28.36328125" customWidth="1"/>
-    <col min="3" max="3" width="30.6328125" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.54296875" customWidth="1"/>
-    <col min="69" max="70" width="10.36328125"/>
+    <col min="1" max="1" width="2.5703125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>31</v>
       </c>
@@ -1564,116 +1564,115 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
-        <f ca="1">TODAY()</f>
-        <v>44643</v>
-      </c>
-      <c r="F3" s="94"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
+        <v>44621</v>
+      </c>
+      <c r="F3" s="92"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
-        <f ca="1">I5</f>
+      <c r="I4" s="89">
+        <f>I5</f>
+        <v>44620</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
+        <f>P5</f>
+        <v>44627</v>
+      </c>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
+        <f>W5</f>
+        <v>44634</v>
+      </c>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
+        <f>AD5</f>
         <v>44641</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
-        <f ca="1">P5</f>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
+        <f>AK5</f>
         <v>44648</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
-        <f ca="1">W5</f>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
+        <f>AR5</f>
         <v>44655</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
-        <f ca="1">AD5</f>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
+        <f>AY5</f>
         <v>44662</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
-        <f ca="1">AK5</f>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
+        <f>BF5</f>
         <v>44669</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
-        <f ca="1">AR5</f>
-        <v>44676</v>
-      </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
-        <f ca="1">AY5</f>
-        <v>44683</v>
-      </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
-        <f ca="1">BF5</f>
-        <v>44690</v>
-      </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>39</v>
       </c>
@@ -1684,231 +1683,231 @@
       <c r="F5" s="84"/>
       <c r="G5" s="84"/>
       <c r="I5" s="11">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
+        <v>44620</v>
+      </c>
+      <c r="J5" s="10">
+        <f>I5+1</f>
+        <v>44621</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>44622</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="0"/>
+        <v>44623</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>44624</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="0"/>
+        <v>44625</v>
+      </c>
+      <c r="O5" s="12">
+        <f t="shared" si="0"/>
+        <v>44626</v>
+      </c>
+      <c r="P5" s="11">
+        <f>O5+1</f>
+        <v>44627</v>
+      </c>
+      <c r="Q5" s="10">
+        <f>P5+1</f>
+        <v>44628</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="0"/>
+        <v>44629</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="0"/>
+        <v>44630</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="0"/>
+        <v>44631</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="0"/>
+        <v>44632</v>
+      </c>
+      <c r="V5" s="12">
+        <f t="shared" si="0"/>
+        <v>44633</v>
+      </c>
+      <c r="W5" s="11">
+        <f>V5+1</f>
+        <v>44634</v>
+      </c>
+      <c r="X5" s="10">
+        <f>W5+1</f>
+        <v>44635</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="0"/>
+        <v>44636</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="0"/>
+        <v>44637</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="0"/>
+        <v>44638</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="0"/>
+        <v>44639</v>
+      </c>
+      <c r="AC5" s="12">
+        <f t="shared" si="0"/>
+        <v>44640</v>
+      </c>
+      <c r="AD5" s="11">
+        <f>AC5+1</f>
         <v>44641</v>
       </c>
-      <c r="J5" s="10">
-        <f ca="1">I5+1</f>
+      <c r="AE5" s="10">
+        <f>AD5+1</f>
         <v>44642</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
+      <c r="AF5" s="10">
+        <f t="shared" si="0"/>
         <v>44643</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AG5" s="10">
+        <f t="shared" si="0"/>
         <v>44644</v>
       </c>
-      <c r="M5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AH5" s="10">
+        <f t="shared" si="0"/>
         <v>44645</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AI5" s="10">
+        <f t="shared" si="0"/>
         <v>44646</v>
       </c>
-      <c r="O5" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AJ5" s="12">
+        <f t="shared" si="0"/>
         <v>44647</v>
       </c>
-      <c r="P5" s="11">
-        <f ca="1">O5+1</f>
+      <c r="AK5" s="11">
+        <f>AJ5+1</f>
         <v>44648</v>
       </c>
-      <c r="Q5" s="10">
-        <f ca="1">P5+1</f>
+      <c r="AL5" s="10">
+        <f>AK5+1</f>
         <v>44649</v>
       </c>
-      <c r="R5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AM5" s="10">
+        <f t="shared" si="0"/>
         <v>44650</v>
       </c>
-      <c r="S5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AN5" s="10">
+        <f t="shared" si="0"/>
         <v>44651</v>
       </c>
-      <c r="T5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AO5" s="10">
+        <f t="shared" si="0"/>
         <v>44652</v>
       </c>
-      <c r="U5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AP5" s="10">
+        <f t="shared" si="0"/>
         <v>44653</v>
       </c>
-      <c r="V5" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AQ5" s="12">
+        <f t="shared" si="0"/>
         <v>44654</v>
       </c>
-      <c r="W5" s="11">
-        <f ca="1">V5+1</f>
+      <c r="AR5" s="11">
+        <f>AQ5+1</f>
         <v>44655</v>
       </c>
-      <c r="X5" s="10">
-        <f ca="1">W5+1</f>
+      <c r="AS5" s="10">
+        <f>AR5+1</f>
         <v>44656</v>
       </c>
-      <c r="Y5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AT5" s="10">
+        <f t="shared" si="0"/>
         <v>44657</v>
       </c>
-      <c r="Z5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AU5" s="10">
+        <f t="shared" si="0"/>
         <v>44658</v>
       </c>
-      <c r="AA5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AV5" s="10">
+        <f t="shared" si="0"/>
         <v>44659</v>
       </c>
-      <c r="AB5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AW5" s="10">
+        <f t="shared" si="0"/>
         <v>44660</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="AX5" s="12">
+        <f t="shared" si="0"/>
         <v>44661</v>
       </c>
-      <c r="AD5" s="11">
-        <f ca="1">AC5+1</f>
+      <c r="AY5" s="11">
+        <f>AX5+1</f>
         <v>44662</v>
       </c>
-      <c r="AE5" s="10">
-        <f ca="1">AD5+1</f>
+      <c r="AZ5" s="10">
+        <f>AY5+1</f>
         <v>44663</v>
       </c>
-      <c r="AF5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BA5" s="10">
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>44664</v>
       </c>
-      <c r="AG5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BB5" s="10">
+        <f t="shared" si="1"/>
         <v>44665</v>
       </c>
-      <c r="AH5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BC5" s="10">
+        <f t="shared" si="1"/>
         <v>44666</v>
       </c>
-      <c r="AI5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BD5" s="10">
+        <f t="shared" si="1"/>
         <v>44667</v>
       </c>
-      <c r="AJ5" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BE5" s="12">
+        <f t="shared" si="1"/>
         <v>44668</v>
       </c>
-      <c r="AK5" s="11">
-        <f ca="1">AJ5+1</f>
+      <c r="BF5" s="11">
+        <f>BE5+1</f>
         <v>44669</v>
       </c>
-      <c r="AL5" s="10">
-        <f ca="1">AK5+1</f>
+      <c r="BG5" s="10">
+        <f>BF5+1</f>
         <v>44670</v>
       </c>
-      <c r="AM5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BH5" s="10">
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>44671</v>
       </c>
-      <c r="AN5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BI5" s="10">
+        <f t="shared" si="2"/>
         <v>44672</v>
       </c>
-      <c r="AO5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BJ5" s="10">
+        <f t="shared" si="2"/>
         <v>44673</v>
       </c>
-      <c r="AP5" s="10">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BK5" s="10">
+        <f t="shared" si="2"/>
         <v>44674</v>
       </c>
-      <c r="AQ5" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="BL5" s="12">
+        <f t="shared" si="2"/>
         <v>44675</v>
       </c>
-      <c r="AR5" s="11">
-        <f ca="1">AQ5+1</f>
-        <v>44676</v>
-      </c>
-      <c r="AS5" s="10">
-        <f ca="1">AR5+1</f>
-        <v>44677</v>
-      </c>
-      <c r="AT5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
-      </c>
-      <c r="AU5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44679</v>
-      </c>
-      <c r="AV5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
-      </c>
-      <c r="AW5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44681</v>
-      </c>
-      <c r="AX5" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
-      </c>
-      <c r="AY5" s="11">
-        <f ca="1">AX5+1</f>
-        <v>44683</v>
-      </c>
-      <c r="AZ5" s="10">
-        <f ca="1">AY5+1</f>
-        <v>44684</v>
-      </c>
-      <c r="BA5" s="10">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44685</v>
-      </c>
-      <c r="BB5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44686</v>
-      </c>
-      <c r="BC5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44687</v>
-      </c>
-      <c r="BD5" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>44688</v>
-      </c>
-      <c r="BE5" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>44689</v>
-      </c>
-      <c r="BF5" s="11">
-        <f ca="1">BE5+1</f>
-        <v>44690</v>
-      </c>
-      <c r="BG5" s="10">
-        <f ca="1">BF5+1</f>
-        <v>44691</v>
-      </c>
-      <c r="BH5" s="10">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44692</v>
-      </c>
-      <c r="BI5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44693</v>
-      </c>
-      <c r="BJ5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44694</v>
-      </c>
-      <c r="BK5" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>44695</v>
-      </c>
-      <c r="BL5" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>44696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>40</v>
       </c>
@@ -1932,231 +1931,231 @@
         <v>13</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6" ca="1" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>M</v>
+        <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
+        <v>m</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ref="J6:AR6" ca="1" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>T</v>
+        <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
+        <v>t</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <f t="shared" si="4"/>
+        <v>o</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <f t="shared" si="4"/>
+        <v>f</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>l</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>s</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <f t="shared" si="4"/>
+        <v>m</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <f t="shared" si="4"/>
+        <v>o</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <f t="shared" si="4"/>
+        <v>f</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>l</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>s</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <f t="shared" si="4"/>
+        <v>m</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <f t="shared" si="4"/>
+        <v>o</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <f t="shared" si="4"/>
+        <v>f</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>l</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>s</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <f t="shared" si="4"/>
+        <v>m</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <f t="shared" si="4"/>
+        <v>o</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <f t="shared" si="4"/>
+        <v>f</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>l</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>s</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <f t="shared" si="4"/>
+        <v>m</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <f t="shared" si="4"/>
+        <v>o</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <f t="shared" si="4"/>
+        <v>t</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <f t="shared" si="4"/>
+        <v>f</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>l</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <f t="shared" si="4"/>
+        <v>s</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <f t="shared" si="4"/>
+        <v>m</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ref="AS6:BL6" ca="1" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
-        <v>T</v>
+        <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <v>t</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <f t="shared" si="5"/>
+        <v>o</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" si="5"/>
+        <v>t</v>
       </c>
       <c r="AV6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <f t="shared" si="5"/>
+        <v>f</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" si="5"/>
+        <v>l</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" si="5"/>
+        <v>s</v>
       </c>
       <c r="AY6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
+        <f t="shared" si="5"/>
+        <v>m</v>
       </c>
       <c r="AZ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" si="5"/>
+        <v>t</v>
       </c>
       <c r="BA6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <f t="shared" si="5"/>
+        <v>o</v>
       </c>
       <c r="BB6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" si="5"/>
+        <v>t</v>
       </c>
       <c r="BC6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <f t="shared" si="5"/>
+        <v>f</v>
       </c>
       <c r="BD6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" si="5"/>
+        <v>l</v>
       </c>
       <c r="BE6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" si="5"/>
+        <v>s</v>
       </c>
       <c r="BF6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>M</v>
+        <f t="shared" si="5"/>
+        <v>m</v>
       </c>
       <c r="BG6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" si="5"/>
+        <v>t</v>
       </c>
       <c r="BH6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>W</v>
+        <f t="shared" si="5"/>
+        <v>o</v>
       </c>
       <c r="BI6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>T</v>
+        <f t="shared" si="5"/>
+        <v>t</v>
       </c>
       <c r="BJ6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>F</v>
+        <f t="shared" si="5"/>
+        <v>f</v>
       </c>
       <c r="BK6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
+        <f t="shared" si="5"/>
+        <v>l</v>
       </c>
       <c r="BL6" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>S</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="5"/>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>35</v>
       </c>
@@ -2223,7 +2222,7 @@
       <c r="BK7" s="44"/>
       <c r="BL7" s="44"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>41</v>
       </c>
@@ -2296,7 +2295,7 @@
       <c r="BK8" s="44"/>
       <c r="BL8" s="44"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>42</v>
       </c>
@@ -2310,16 +2309,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="65">
-        <f ca="1">Project_Start</f>
-        <v>44643</v>
+        <f>Project_Start</f>
+        <v>44621</v>
       </c>
       <c r="F9" s="65">
-        <f ca="1">E9+7</f>
-        <v>44650</v>
+        <f>E9+7</f>
+        <v>44628</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I9" s="44"/>
@@ -2379,7 +2378,7 @@
       <c r="BK9" s="44"/>
       <c r="BL9" s="44"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>43</v>
       </c>
@@ -2393,16 +2392,16 @@
         <v>1</v>
       </c>
       <c r="E10" s="65">
-        <f ca="1">F9</f>
-        <v>44650</v>
+        <f>F9</f>
+        <v>44628</v>
       </c>
       <c r="F10" s="65">
-        <f ca="1">E10+7</f>
-        <v>44657</v>
+        <f>E10+7</f>
+        <v>44635</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I10" s="44"/>
@@ -2462,7 +2461,7 @@
       <c r="BK10" s="44"/>
       <c r="BL10" s="44"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
         <v>50</v>
@@ -2474,16 +2473,16 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="65">
-        <f ca="1">F10</f>
-        <v>44657</v>
+        <f>F10</f>
+        <v>44635</v>
       </c>
       <c r="F11" s="65">
-        <f ca="1">E11+7</f>
-        <v>44664</v>
+        <f>E11+7</f>
+        <v>44642</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I11" s="44"/>
@@ -2543,7 +2542,7 @@
       <c r="BK11" s="44"/>
       <c r="BL11" s="44"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="79" t="s">
         <v>51</v>
@@ -2552,19 +2551,19 @@
         <v>52</v>
       </c>
       <c r="D12" s="22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="65">
-        <f ca="1">F10</f>
-        <v>44657</v>
+        <f>F10</f>
+        <v>44635</v>
       </c>
       <c r="F12" s="65">
-        <f ca="1">E12+7</f>
-        <v>44664</v>
+        <f>E12+7</f>
+        <v>44642</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I12" s="44"/>
@@ -2624,7 +2623,7 @@
       <c r="BK12" s="44"/>
       <c r="BL12" s="44"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="79" t="s">
         <v>54</v>
@@ -2634,16 +2633,16 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="65">
-        <f ca="1">F12</f>
-        <v>44664</v>
+        <f>F12</f>
+        <v>44642</v>
       </c>
       <c r="F13" s="65">
-        <f ca="1">E13+7</f>
-        <v>44671</v>
+        <f>E13+7</f>
+        <v>44649</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I13" s="44"/>
@@ -2703,7 +2702,7 @@
       <c r="BK13" s="44"/>
       <c r="BL13" s="44"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>44</v>
       </c>
@@ -2774,7 +2773,7 @@
       <c r="BK14" s="44"/>
       <c r="BL14" s="44"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
       <c r="B15" s="80" t="s">
         <v>55</v>
@@ -2782,18 +2781,20 @@
       <c r="C15" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="27">
+        <v>0.7</v>
+      </c>
       <c r="E15" s="66">
-        <f ca="1">F13</f>
-        <v>44671</v>
+        <f>F13</f>
+        <v>44649</v>
       </c>
       <c r="F15" s="66">
-        <f ca="1">E15+7</f>
-        <v>44678</v>
+        <f>E15+7</f>
+        <v>44656</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I15" s="44"/>
@@ -2853,7 +2854,7 @@
       <c r="BK15" s="44"/>
       <c r="BL15" s="44"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
         <v>56</v>
@@ -2861,18 +2862,20 @@
       <c r="C16" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
       <c r="E16" s="66">
-        <f ca="1">F15</f>
-        <v>44678</v>
+        <f>F15</f>
+        <v>44656</v>
       </c>
       <c r="F16" s="66">
-        <f ca="1">E16+7</f>
-        <v>44685</v>
+        <f>E16+7</f>
+        <v>44663</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I16" s="44"/>
@@ -2932,7 +2935,7 @@
       <c r="BK16" s="44"/>
       <c r="BL16" s="44"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
         <v>57</v>
@@ -2940,18 +2943,20 @@
       <c r="C17" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="27"/>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
       <c r="E17" s="66">
-        <f t="shared" ref="E17:E18" ca="1" si="7">F16</f>
-        <v>44685</v>
+        <f t="shared" ref="E17:E18" si="7">F16</f>
+        <v>44663</v>
       </c>
       <c r="F17" s="66">
-        <f t="shared" ref="F17:F18" ca="1" si="8">E17+7</f>
-        <v>44692</v>
+        <f t="shared" ref="F17:F18" si="8">E17+7</f>
+        <v>44670</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I17" s="44"/>
@@ -3011,7 +3016,7 @@
       <c r="BK17" s="44"/>
       <c r="BL17" s="44"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="80" t="s">
         <v>59</v>
@@ -3019,18 +3024,20 @@
       <c r="C18" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
       <c r="E18" s="66">
-        <f t="shared" ca="1" si="7"/>
-        <v>44692</v>
+        <f t="shared" si="7"/>
+        <v>44670</v>
       </c>
       <c r="F18" s="66">
-        <f t="shared" ca="1" si="8"/>
-        <v>44699</v>
+        <f t="shared" si="8"/>
+        <v>44677</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I18" s="44"/>
@@ -3090,7 +3097,7 @@
       <c r="BK18" s="44"/>
       <c r="BL18" s="44"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="80"/>
       <c r="C19" s="73"/>
@@ -3159,7 +3166,7 @@
       <c r="BK19" s="44"/>
       <c r="BL19" s="44"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>32</v>
       </c>
@@ -3230,7 +3237,7 @@
       <c r="BK20" s="44"/>
       <c r="BL20" s="44"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
         <v>4</v>
@@ -3301,7 +3308,7 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
         <v>5</v>
@@ -3372,7 +3379,7 @@
       <c r="BK22" s="44"/>
       <c r="BL22" s="44"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
         <v>1</v>
@@ -3443,7 +3450,7 @@
       <c r="BK23" s="44"/>
       <c r="BL23" s="44"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
         <v>2</v>
@@ -3514,7 +3521,7 @@
       <c r="BK24" s="44"/>
       <c r="BL24" s="44"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="81" t="s">
         <v>3</v>
@@ -3585,7 +3592,7 @@
       <c r="BK25" s="44"/>
       <c r="BL25" s="44"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
         <v>32</v>
       </c>
@@ -3658,7 +3665,7 @@
       <c r="BK26" s="44"/>
       <c r="BL26" s="44"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
         <v>4</v>
@@ -3729,7 +3736,7 @@
       <c r="BK27" s="44"/>
       <c r="BL27" s="44"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
         <v>5</v>
@@ -3800,7 +3807,7 @@
       <c r="BK28" s="44"/>
       <c r="BL28" s="44"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
         <v>1</v>
@@ -3871,7 +3878,7 @@
       <c r="BK29" s="44"/>
       <c r="BL29" s="44"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
         <v>2</v>
@@ -3942,7 +3949,7 @@
       <c r="BK30" s="44"/>
       <c r="BL30" s="44"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="82" t="s">
         <v>3</v>
@@ -4013,7 +4020,7 @@
       <c r="BK31" s="44"/>
       <c r="BL31" s="44"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
         <v>34</v>
       </c>
@@ -4084,7 +4091,7 @@
       <c r="BK32" s="44"/>
       <c r="BL32" s="44"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>33</v>
       </c>
@@ -4157,29 +4164,29 @@
       <c r="BK33" s="46"/>
       <c r="BL33" s="46"/>
     </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="14"/>
       <c r="F35" s="60"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4253,86 +4260,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.08984375" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.08984375" style="2"/>
+    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>22</v>
       </c>
@@ -4351,35 +4358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4667,27 +4645,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4706,4 +4693,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>